--- a/documents/mappings/EDAC-to-OBOE.xlsx
+++ b/documents/mappings/EDAC-to-OBOE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16460" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>FGDC Themekey</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>service count</t>
-  </si>
-  <si>
-    <t>??? Some kinds of physical property</t>
   </si>
 </sst>
 </file>
@@ -231,14 +228,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -613,7 +610,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -650,111 +647,111 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1530</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>24</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>918</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>424</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>104</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -764,12 +761,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
     </row>

--- a/documents/mappings/EDAC-to-OBOE.xlsx
+++ b/documents/mappings/EDAC-to-OBOE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -181,8 +181,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -237,7 +241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -258,6 +262,8 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -278,6 +284,8 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -610,7 +618,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -657,7 +665,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="4">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -678,7 +686,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="4">
-        <v>24</v>
+        <v>1532</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>10</v>
@@ -699,7 +707,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="4">
-        <v>918</v>
+        <v>3064</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>9</v>
